--- a/Texts/Grades.xlsx
+++ b/Texts/Grades.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verhaarpaf/Documents/CDS/PythonCursus/Exercises/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/verhaarpaf/Documents/CDS/PythonCursus/Spring2020/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67EC5090-F665-C447-8046-166967A1B6CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6CA4D65-EF70-A243-8C82-E83E3B8FA35D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" xr2:uid="{BBE2D6F0-DBBF-0C47-A0DC-CFD18C5E0051}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14320" xr2:uid="{BBE2D6F0-DBBF-0C47-A0DC-CFD18C5E0051}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -478,7 +478,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,7 +596,7 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -664,7 +664,7 @@
         <v>23</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11">
         <v>8.5</v>
